--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -4285,13 +4285,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H1303" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H1303">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Julián Úsuga"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H1303"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Encuestador"/>
     <tableColumn id="2" name="Enlace"/>
@@ -4313,12 +4307,12 @@
   <dimension ref="A1:H1303"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A377" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D406" activeCellId="0" sqref="D406"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.84"/>
@@ -4351,7 +4345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -4403,7 +4397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -4455,7 +4449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4559,7 +4553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -4585,7 +4579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -4637,7 +4631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -4689,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -4715,7 +4709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -4819,7 +4813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -4871,7 +4865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -4897,7 +4891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
@@ -4923,7 +4917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -4975,7 +4969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -5001,7 +4995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -5053,7 +5047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -5105,7 +5099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -5131,7 +5125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -5209,7 +5203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
@@ -5287,7 +5281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -5313,7 +5307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -5365,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -5391,7 +5385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -5417,7 +5411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
@@ -5443,7 +5437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>8</v>
       </c>
@@ -5469,7 +5463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -5495,7 +5489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>24</v>
       </c>
@@ -5547,7 +5541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
@@ -5573,7 +5567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -5625,7 +5619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
@@ -5677,7 +5671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>8</v>
       </c>
@@ -5703,7 +5697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -5729,7 +5723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>8</v>
       </c>
@@ -5833,7 +5827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -5937,7 +5931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -5989,7 +5983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>8</v>
       </c>
@@ -6041,7 +6035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -6093,7 +6087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
@@ -6171,7 +6165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>13</v>
       </c>
@@ -6249,7 +6243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -6275,7 +6269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>24</v>
       </c>
@@ -6301,7 +6295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>24</v>
       </c>
@@ -6327,7 +6321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>8</v>
       </c>
@@ -6379,7 +6373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
@@ -6405,7 +6399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
         <v>8</v>
       </c>
@@ -6431,7 +6425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
         <v>13</v>
       </c>
@@ -6457,7 +6451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>8</v>
       </c>
@@ -6483,7 +6477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
@@ -6535,7 +6529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
@@ -6561,7 +6555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>24</v>
       </c>
@@ -6613,7 +6607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -6665,7 +6659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -6691,7 +6685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
@@ -6717,7 +6711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
         <v>24</v>
       </c>
@@ -6743,7 +6737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
         <v>24</v>
       </c>
@@ -6769,7 +6763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
@@ -6795,7 +6789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>24</v>
       </c>
@@ -6821,7 +6815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>8</v>
       </c>
@@ -6847,7 +6841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>24</v>
       </c>
@@ -6873,7 +6867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>13</v>
       </c>
@@ -6899,7 +6893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>24</v>
       </c>
@@ -6925,7 +6919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
@@ -6977,7 +6971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
         <v>8</v>
       </c>
@@ -7003,7 +6997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
         <v>24</v>
       </c>
@@ -7029,7 +7023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -7055,7 +7049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>24</v>
       </c>
@@ -7081,7 +7075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>13</v>
       </c>
@@ -7133,7 +7127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>24</v>
       </c>
@@ -7211,7 +7205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
         <v>24</v>
       </c>
@@ -7263,7 +7257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>24</v>
       </c>
@@ -7289,7 +7283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
         <v>8</v>
       </c>
@@ -7315,7 +7309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
         <v>13</v>
       </c>
@@ -7367,7 +7361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -7419,7 +7413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
         <v>8</v>
       </c>
@@ -7445,7 +7439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
         <v>8</v>
       </c>
@@ -7497,7 +7491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -7523,7 +7517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>8</v>
       </c>
@@ -7549,7 +7543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>24</v>
       </c>
@@ -7575,7 +7569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>24</v>
       </c>
@@ -7601,7 +7595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
         <v>13</v>
       </c>
@@ -7627,7 +7621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>8</v>
       </c>
@@ -7653,7 +7647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
         <v>24</v>
       </c>
@@ -7705,7 +7699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
         <v>24</v>
       </c>
@@ -7731,7 +7725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
         <v>24</v>
       </c>
@@ -7757,7 +7751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>13</v>
       </c>
@@ -7809,7 +7803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>8</v>
       </c>
@@ -7835,7 +7829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>24</v>
       </c>
@@ -7861,7 +7855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
@@ -7913,7 +7907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -7965,7 +7959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
         <v>24</v>
       </c>
@@ -7991,7 +7985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>8</v>
       </c>
@@ -8017,7 +8011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
         <v>8</v>
       </c>
@@ -8043,7 +8037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
         <v>13</v>
       </c>
@@ -8069,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>24</v>
       </c>
@@ -8095,7 +8089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>24</v>
       </c>
@@ -8121,7 +8115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>24</v>
       </c>
@@ -8147,7 +8141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>24</v>
       </c>
@@ -8173,7 +8167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>24</v>
       </c>
@@ -8251,7 +8245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
         <v>13</v>
       </c>
@@ -8277,7 +8271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -8303,7 +8297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
         <v>8</v>
       </c>
@@ -8329,7 +8323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>24</v>
       </c>
@@ -8355,7 +8349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -8381,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -8407,7 +8401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
         <v>24</v>
       </c>
@@ -8459,7 +8453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>8</v>
       </c>
@@ -8485,7 +8479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -8511,7 +8505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>24</v>
       </c>
@@ -8537,7 +8531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
         <v>13</v>
       </c>
@@ -8589,7 +8583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
         <v>13</v>
       </c>
@@ -8615,7 +8609,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>24</v>
       </c>
@@ -8667,7 +8661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
         <v>24</v>
       </c>
@@ -8719,7 +8713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>8</v>
       </c>
@@ -8745,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
         <v>24</v>
       </c>
@@ -8771,7 +8765,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
         <v>8</v>
       </c>
@@ -8797,7 +8791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>24</v>
       </c>
@@ -8823,7 +8817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>24</v>
       </c>
@@ -8849,7 +8843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
         <v>13</v>
       </c>
@@ -8875,7 +8869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>13</v>
       </c>
@@ -8901,7 +8895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
         <v>8</v>
       </c>
@@ -8927,7 +8921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
         <v>8</v>
       </c>
@@ -8979,7 +8973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
         <v>8</v>
       </c>
@@ -9005,7 +8999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>24</v>
       </c>
@@ -9031,7 +9025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>8</v>
       </c>
@@ -9057,7 +9051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
         <v>24</v>
       </c>
@@ -9109,7 +9103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>24</v>
       </c>
@@ -9135,7 +9129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>8</v>
       </c>
@@ -9187,7 +9181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
         <v>8</v>
       </c>
@@ -9213,7 +9207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>13</v>
       </c>
@@ -9265,7 +9259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
         <v>24</v>
       </c>
@@ -9291,7 +9285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
         <v>24</v>
       </c>
@@ -9343,7 +9337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>8</v>
       </c>
@@ -9369,7 +9363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
         <v>24</v>
       </c>
@@ -9421,7 +9415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>13</v>
       </c>
@@ -9447,7 +9441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>24</v>
       </c>
@@ -9473,7 +9467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
         <v>8</v>
       </c>
@@ -9525,7 +9519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
         <v>13</v>
       </c>
@@ -9551,7 +9545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
         <v>13</v>
       </c>
@@ -9577,7 +9571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
         <v>24</v>
       </c>
@@ -9603,7 +9597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
@@ -9629,7 +9623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
         <v>13</v>
       </c>
@@ -9681,7 +9675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
         <v>8</v>
       </c>
@@ -9707,7 +9701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>13</v>
       </c>
@@ -9733,7 +9727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
         <v>8</v>
       </c>
@@ -9785,7 +9779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>13</v>
       </c>
@@ -9837,7 +9831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>13</v>
       </c>
@@ -9863,7 +9857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
         <v>24</v>
       </c>
@@ -9915,7 +9909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="4" t="s">
         <v>8</v>
       </c>
@@ -10019,7 +10013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
         <v>13</v>
       </c>
@@ -10045,7 +10039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
         <v>13</v>
       </c>
@@ -10097,7 +10091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
         <v>24</v>
       </c>
@@ -10123,7 +10117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
         <v>24</v>
       </c>
@@ -10201,7 +10195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
         <v>24</v>
       </c>
@@ -10227,7 +10221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>8</v>
       </c>
@@ -10253,7 +10247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
         <v>13</v>
       </c>
@@ -10305,7 +10299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>8</v>
       </c>
@@ -10331,7 +10325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>24</v>
       </c>
@@ -10357,7 +10351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
         <v>24</v>
       </c>
@@ -10409,7 +10403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
         <v>8</v>
       </c>
@@ -10435,7 +10429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="4" t="s">
         <v>24</v>
       </c>
@@ -10461,7 +10455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
         <v>8</v>
       </c>
@@ -10513,7 +10507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>24</v>
       </c>
@@ -10539,7 +10533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
         <v>24</v>
       </c>
@@ -10565,7 +10559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
         <v>8</v>
       </c>
@@ -10591,7 +10585,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
         <v>24</v>
       </c>
@@ -10617,7 +10611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
         <v>8</v>
       </c>
@@ -10669,7 +10663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
         <v>13</v>
       </c>
@@ -10695,7 +10689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
         <v>8</v>
       </c>
@@ -10747,7 +10741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
         <v>13</v>
       </c>
@@ -10825,7 +10819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
         <v>24</v>
       </c>
@@ -10851,7 +10845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
         <v>8</v>
       </c>
@@ -10877,7 +10871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
         <v>13</v>
       </c>
@@ -10903,7 +10897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>8</v>
       </c>
@@ -10929,7 +10923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
         <v>13</v>
       </c>
@@ -10955,7 +10949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>8</v>
       </c>
@@ -10981,7 +10975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
         <v>13</v>
       </c>
@@ -11007,7 +11001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
         <v>13</v>
       </c>
@@ -11033,7 +11027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
         <v>13</v>
       </c>
@@ -11085,7 +11079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="4" t="s">
         <v>8</v>
       </c>
@@ -11111,7 +11105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
         <v>13</v>
       </c>
@@ -11137,7 +11131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>24</v>
       </c>
@@ -11189,7 +11183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
         <v>13</v>
       </c>
@@ -11215,7 +11209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
         <v>13</v>
       </c>
@@ -11241,7 +11235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
         <v>8</v>
       </c>
@@ -11293,7 +11287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
         <v>8</v>
       </c>
@@ -11345,7 +11339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
         <v>13</v>
       </c>
@@ -11397,7 +11391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="4" t="s">
         <v>13</v>
       </c>
@@ -11501,7 +11495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
         <v>13</v>
       </c>
@@ -11527,7 +11521,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
         <v>24</v>
       </c>
@@ -11553,7 +11547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
         <v>24</v>
       </c>
@@ -11631,7 +11625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
         <v>13</v>
       </c>
@@ -11657,7 +11651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
         <v>13</v>
       </c>
@@ -11683,7 +11677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
         <v>8</v>
       </c>
@@ -11709,7 +11703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
         <v>24</v>
       </c>
@@ -11787,7 +11781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
         <v>13</v>
       </c>
@@ -11839,7 +11833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
         <v>8</v>
       </c>
@@ -11865,7 +11859,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
         <v>24</v>
       </c>
@@ -11891,7 +11885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
         <v>13</v>
       </c>
@@ -11917,7 +11911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
         <v>24</v>
       </c>
@@ -11943,7 +11937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
         <v>13</v>
       </c>
@@ -11969,7 +11963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
         <v>8</v>
       </c>
@@ -12021,7 +12015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
         <v>13</v>
       </c>
@@ -12047,7 +12041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>13</v>
       </c>
@@ -12073,7 +12067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
         <v>24</v>
       </c>
@@ -12099,7 +12093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="4" t="s">
         <v>8</v>
       </c>
@@ -12151,7 +12145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
         <v>24</v>
       </c>
@@ -12177,7 +12171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="4" t="s">
         <v>8</v>
       </c>
@@ -12203,7 +12197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
         <v>24</v>
       </c>
@@ -12229,7 +12223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
         <v>24</v>
       </c>
@@ -12307,7 +12301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>13</v>
       </c>
@@ -12333,7 +12327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
         <v>13</v>
       </c>
@@ -12385,7 +12379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
         <v>8</v>
       </c>
@@ -12411,7 +12405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
         <v>24</v>
       </c>
@@ -12437,7 +12431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
         <v>8</v>
       </c>
@@ -12515,7 +12509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
         <v>24</v>
       </c>
@@ -12541,7 +12535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>8</v>
       </c>
@@ -12567,7 +12561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
         <v>8</v>
       </c>
@@ -12593,7 +12587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
         <v>13</v>
       </c>
@@ -12645,7 +12639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
         <v>8</v>
       </c>
@@ -12671,7 +12665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
         <v>13</v>
       </c>
@@ -12697,7 +12691,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
         <v>8</v>
       </c>
@@ -12723,7 +12717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="4" t="s">
         <v>24</v>
       </c>
@@ -12775,7 +12769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="4" t="s">
         <v>24</v>
       </c>
@@ -12801,7 +12795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
         <v>13</v>
       </c>
@@ -12827,7 +12821,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
         <v>8</v>
       </c>
@@ -12853,7 +12847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
         <v>8</v>
       </c>
@@ -12879,7 +12873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>24</v>
       </c>
@@ -12931,7 +12925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
         <v>24</v>
       </c>
@@ -12957,7 +12951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
         <v>24</v>
       </c>
@@ -12983,7 +12977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
         <v>24</v>
       </c>
@@ -13009,7 +13003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
         <v>24</v>
       </c>
@@ -13061,7 +13055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
         <v>24</v>
       </c>
@@ -13087,7 +13081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>8</v>
       </c>
@@ -13113,7 +13107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="4" t="s">
         <v>13</v>
       </c>
@@ -13139,7 +13133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
         <v>13</v>
       </c>
@@ -13217,7 +13211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>24</v>
       </c>
@@ -13243,7 +13237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
         <v>13</v>
       </c>
@@ -13269,7 +13263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
         <v>13</v>
       </c>
@@ -13295,7 +13289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
         <v>13</v>
       </c>
@@ -13321,7 +13315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>24</v>
       </c>
@@ -13347,7 +13341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
         <v>8</v>
       </c>
@@ -13373,7 +13367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
         <v>24</v>
       </c>
@@ -13399,7 +13393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>8</v>
       </c>
@@ -13425,7 +13419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
         <v>13</v>
       </c>
@@ -13451,7 +13445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
         <v>13</v>
       </c>
@@ -13503,7 +13497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
         <v>24</v>
       </c>
@@ -13529,7 +13523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
         <v>8</v>
       </c>
@@ -13555,7 +13549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
         <v>8</v>
       </c>
@@ -13607,7 +13601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>24</v>
       </c>
@@ -13659,7 +13653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="4" t="s">
         <v>13</v>
       </c>
@@ -13685,7 +13679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
         <v>8</v>
       </c>
@@ -13711,7 +13705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
         <v>13</v>
       </c>
@@ -13737,7 +13731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
         <v>24</v>
       </c>
@@ -13763,7 +13757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>13</v>
       </c>
@@ -13815,7 +13809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
         <v>24</v>
       </c>
@@ -13841,7 +13835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
         <v>13</v>
       </c>
@@ -13867,7 +13861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
         <v>13</v>
       </c>
@@ -13919,7 +13913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>8</v>
       </c>
@@ -13945,7 +13939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
         <v>24</v>
       </c>
@@ -13971,7 +13965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
         <v>13</v>
       </c>
@@ -13997,7 +13991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
         <v>24</v>
       </c>
@@ -14023,7 +14017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
         <v>8</v>
       </c>
@@ -14049,7 +14043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
         <v>8</v>
       </c>
@@ -14127,7 +14121,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
         <v>13</v>
       </c>
@@ -14179,7 +14173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
         <v>8</v>
       </c>
@@ -14205,7 +14199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
         <v>8</v>
       </c>
@@ -14231,7 +14225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>8</v>
       </c>
@@ -14257,7 +14251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
         <v>8</v>
       </c>
@@ -14283,7 +14277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
         <v>13</v>
       </c>
@@ -14335,7 +14329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
         <v>13</v>
       </c>
@@ -14387,7 +14381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
         <v>8</v>
       </c>
@@ -14439,7 +14433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
         <v>24</v>
       </c>
@@ -14465,7 +14459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
         <v>13</v>
       </c>
@@ -14517,7 +14511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>13</v>
       </c>
@@ -14543,7 +14537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
         <v>13</v>
       </c>
@@ -14595,7 +14589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
         <v>8</v>
       </c>
@@ -14621,7 +14615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
         <v>8</v>
       </c>
@@ -14699,7 +14693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
         <v>13</v>
       </c>
@@ -14725,7 +14719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
         <v>24</v>
       </c>
@@ -14751,7 +14745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
         <v>8</v>
       </c>
@@ -14829,7 +14823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
         <v>8</v>
       </c>
@@ -14907,7 +14901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
         <v>24</v>
       </c>
@@ -14933,7 +14927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
         <v>13</v>
       </c>
@@ -14959,7 +14953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
         <v>13</v>
       </c>
@@ -14985,7 +14979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>24</v>
       </c>
@@ -15037,7 +15031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
         <v>8</v>
       </c>
@@ -15089,7 +15083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
         <v>13</v>
       </c>
@@ -15115,7 +15109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
         <v>24</v>
       </c>
@@ -15141,7 +15135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
         <v>8</v>
       </c>
@@ -15167,7 +15161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
         <v>24</v>
       </c>
@@ -15219,7 +15213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
         <v>24</v>
       </c>
@@ -15271,7 +15265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
         <v>24</v>
       </c>
@@ -15323,7 +15317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
         <v>24</v>
       </c>
@@ -15349,7 +15343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
         <v>24</v>
       </c>
@@ -15375,7 +15369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
         <v>24</v>
       </c>
@@ -15401,7 +15395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>24</v>
       </c>
@@ -15427,7 +15421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
         <v>24</v>
       </c>
@@ -15453,7 +15447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
         <v>13</v>
       </c>
@@ -15479,7 +15473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
         <v>8</v>
       </c>
@@ -15505,7 +15499,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
         <v>24</v>
       </c>
@@ -15531,7 +15525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
         <v>24</v>
       </c>
@@ -15557,7 +15551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>24</v>
       </c>
@@ -15609,7 +15603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
         <v>13</v>
       </c>
@@ -15635,7 +15629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
         <v>24</v>
       </c>
@@ -15661,7 +15655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
         <v>13</v>
       </c>
@@ -15765,7 +15759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
         <v>24</v>
       </c>
@@ -15791,7 +15785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
         <v>8</v>
       </c>
@@ -15843,7 +15837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
         <v>8</v>
       </c>
@@ -15869,7 +15863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
         <v>13</v>
       </c>
@@ -15895,7 +15889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
         <v>24</v>
       </c>
@@ -15921,7 +15915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
         <v>8</v>
       </c>
@@ -15947,7 +15941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
         <v>13</v>
       </c>
@@ -15973,7 +15967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
         <v>13</v>
       </c>
@@ -15999,7 +15993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
         <v>24</v>
       </c>
@@ -16025,7 +16019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
         <v>24</v>
       </c>
@@ -16051,7 +16045,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
         <v>24</v>
       </c>
@@ -16129,7 +16123,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
         <v>8</v>
       </c>
@@ -16207,7 +16201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
         <v>8</v>
       </c>
@@ -16233,7 +16227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
         <v>8</v>
       </c>
@@ -16259,7 +16253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
         <v>13</v>
       </c>
@@ -16285,7 +16279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
         <v>13</v>
       </c>
@@ -16311,7 +16305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
         <v>13</v>
       </c>
@@ -16337,7 +16331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
         <v>24</v>
       </c>
@@ -16363,7 +16357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
         <v>8</v>
       </c>
@@ -16389,7 +16383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
         <v>24</v>
       </c>
@@ -16441,7 +16435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
         <v>24</v>
       </c>
@@ -16467,7 +16461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
         <v>24</v>
       </c>
@@ -16493,7 +16487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
         <v>8</v>
       </c>
@@ -16519,7 +16513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
         <v>24</v>
       </c>
@@ -16545,7 +16539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6" t="s">
         <v>24</v>
       </c>
@@ -16571,7 +16565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
         <v>8</v>
       </c>
@@ -16597,7 +16591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="4" t="s">
         <v>8</v>
       </c>
@@ -16623,7 +16617,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
         <v>8</v>
       </c>
@@ -16649,7 +16643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
         <v>13</v>
       </c>
@@ -16675,7 +16669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
         <v>24</v>
       </c>
@@ -16701,7 +16695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
         <v>8</v>
       </c>
@@ -16727,7 +16721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
         <v>13</v>
       </c>
@@ -16779,7 +16773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
         <v>8</v>
       </c>
@@ -16805,7 +16799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
         <v>24</v>
       </c>
@@ -16831,7 +16825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="4" t="s">
         <v>13</v>
       </c>
@@ -16857,7 +16851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
         <v>13</v>
       </c>
@@ -16935,7 +16929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
         <v>8</v>
       </c>
@@ -16961,7 +16955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
         <v>24</v>
       </c>
@@ -16987,7 +16981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
         <v>24</v>
       </c>
@@ -17013,7 +17007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
         <v>13</v>
       </c>
@@ -17039,7 +17033,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
         <v>8</v>
       </c>
@@ -17091,7 +17085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
         <v>8</v>
       </c>
@@ -17117,7 +17111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
         <v>8</v>
       </c>
@@ -17143,7 +17137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
         <v>8</v>
       </c>
@@ -17169,7 +17163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
         <v>13</v>
       </c>
@@ -17195,7 +17189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
         <v>24</v>
       </c>
@@ -17221,7 +17215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="4" t="s">
         <v>24</v>
       </c>
@@ -17247,7 +17241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
         <v>24</v>
       </c>
@@ -17273,7 +17267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
         <v>13</v>
       </c>
@@ -17299,7 +17293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
         <v>8</v>
       </c>
@@ -17351,7 +17345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
         <v>24</v>
       </c>
@@ -17403,7 +17397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
         <v>24</v>
       </c>
@@ -17429,7 +17423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
         <v>8</v>
       </c>
@@ -17455,7 +17449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
         <v>24</v>
       </c>
@@ -17481,7 +17475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
         <v>13</v>
       </c>
@@ -17533,7 +17527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
         <v>8</v>
       </c>
@@ -17559,7 +17553,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6" t="s">
         <v>24</v>
       </c>
@@ -17585,7 +17579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
         <v>8</v>
       </c>
@@ -17611,7 +17605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="2" t="s">
         <v>24</v>
       </c>
@@ -17637,7 +17631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
         <v>8</v>
       </c>
@@ -17663,7 +17657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6" t="s">
         <v>24</v>
       </c>
@@ -17689,7 +17683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
         <v>24</v>
       </c>
@@ -17741,7 +17735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
         <v>13</v>
       </c>
@@ -17767,7 +17761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
         <v>24</v>
       </c>
@@ -17793,7 +17787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
         <v>13</v>
       </c>
@@ -17819,7 +17813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
         <v>13</v>
       </c>
@@ -17871,7 +17865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
         <v>8</v>
       </c>
@@ -17897,7 +17891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="6" t="s">
         <v>13</v>
       </c>
@@ -17923,7 +17917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="6" t="s">
         <v>13</v>
       </c>
@@ -17949,7 +17943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="6" t="s">
         <v>13</v>
       </c>
@@ -17975,7 +17969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
         <v>13</v>
       </c>
@@ -18001,7 +17995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
         <v>24</v>
       </c>
@@ -18027,7 +18021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
         <v>13</v>
       </c>
@@ -18053,7 +18047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="6" t="s">
         <v>13</v>
       </c>
@@ -18079,7 +18073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
         <v>24</v>
       </c>
@@ -18105,7 +18099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
         <v>13</v>
       </c>
@@ -18131,7 +18125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
         <v>24</v>
       </c>
@@ -18157,7 +18151,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
         <v>24</v>
       </c>
@@ -18183,7 +18177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
         <v>8</v>
       </c>
@@ -18261,7 +18255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
         <v>13</v>
       </c>
@@ -18313,7 +18307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
         <v>13</v>
       </c>
@@ -18339,7 +18333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
         <v>8</v>
       </c>
@@ -18365,7 +18359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
         <v>24</v>
       </c>
@@ -18417,7 +18411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
         <v>24</v>
       </c>
@@ -18443,7 +18437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
         <v>13</v>
       </c>
@@ -18469,7 +18463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
         <v>8</v>
       </c>
@@ -18495,7 +18489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
         <v>24</v>
       </c>
@@ -18521,7 +18515,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
         <v>24</v>
       </c>
@@ -18547,7 +18541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
         <v>8</v>
       </c>
@@ -18573,7 +18567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
         <v>13</v>
       </c>
@@ -18677,7 +18671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
         <v>13</v>
       </c>
@@ -18729,7 +18723,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
         <v>8</v>
       </c>
@@ -18755,7 +18749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="6" t="s">
         <v>8</v>
       </c>
@@ -18781,7 +18775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
         <v>13</v>
       </c>
@@ -18807,7 +18801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
         <v>24</v>
       </c>
@@ -18833,7 +18827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
         <v>13</v>
       </c>
@@ -18859,7 +18853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
         <v>24</v>
       </c>
@@ -18885,7 +18879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
         <v>24</v>
       </c>
@@ -18911,7 +18905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
         <v>8</v>
       </c>
@@ -18937,7 +18931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="6" t="s">
         <v>13</v>
       </c>
@@ -18963,7 +18957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
         <v>13</v>
       </c>
@@ -18989,7 +18983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
         <v>13</v>
       </c>
@@ -19015,7 +19009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
         <v>24</v>
       </c>
@@ -19041,7 +19035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="6" t="s">
         <v>24</v>
       </c>
@@ -19067,7 +19061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
         <v>24</v>
       </c>
@@ -19119,7 +19113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
         <v>13</v>
       </c>
@@ -19145,7 +19139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
         <v>24</v>
       </c>
@@ -19171,7 +19165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
         <v>8</v>
       </c>
@@ -19197,7 +19191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
         <v>13</v>
       </c>
@@ -19223,7 +19217,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
         <v>24</v>
       </c>
@@ -19275,7 +19269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
         <v>13</v>
       </c>
@@ -19327,7 +19321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
         <v>8</v>
       </c>
@@ -19353,7 +19347,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
         <v>13</v>
       </c>
@@ -19379,7 +19373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
         <v>24</v>
       </c>
@@ -19431,7 +19425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
         <v>13</v>
       </c>
@@ -19457,7 +19451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
         <v>8</v>
       </c>
@@ -19509,7 +19503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
         <v>8</v>
       </c>
@@ -19535,7 +19529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="6" t="s">
         <v>13</v>
       </c>
@@ -19587,7 +19581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
         <v>13</v>
       </c>
@@ -19613,7 +19607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
         <v>24</v>
       </c>
@@ -19639,7 +19633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
         <v>24</v>
       </c>
@@ -19665,7 +19659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
         <v>24</v>
       </c>
@@ -19691,7 +19685,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
         <v>24</v>
       </c>
@@ -19717,7 +19711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
         <v>13</v>
       </c>
@@ -19743,7 +19737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="6" t="s">
         <v>8</v>
       </c>
@@ -19769,7 +19763,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
         <v>24</v>
       </c>
@@ -19795,7 +19789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
         <v>24</v>
       </c>
@@ -19847,7 +19841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
         <v>24</v>
       </c>
@@ -19925,7 +19919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
         <v>8</v>
       </c>
@@ -19951,7 +19945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
         <v>13</v>
       </c>
@@ -19977,7 +19971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
         <v>13</v>
       </c>
@@ -20029,7 +20023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
         <v>8</v>
       </c>
@@ -20081,7 +20075,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
         <v>8</v>
       </c>
@@ -20133,7 +20127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="6" t="s">
         <v>8</v>
       </c>
@@ -20159,7 +20153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
         <v>24</v>
       </c>
@@ -20185,7 +20179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="6" t="s">
         <v>24</v>
       </c>
@@ -20211,7 +20205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
         <v>13</v>
       </c>
@@ -20237,7 +20231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="2" t="s">
         <v>13</v>
       </c>
@@ -20263,7 +20257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
         <v>8</v>
       </c>
@@ -20289,7 +20283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
         <v>8</v>
       </c>
@@ -20315,7 +20309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
         <v>8</v>
       </c>
@@ -20367,7 +20361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
         <v>24</v>
       </c>
@@ -20393,7 +20387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
         <v>24</v>
       </c>
@@ -20419,7 +20413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
         <v>13</v>
       </c>
@@ -20445,7 +20439,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
         <v>13</v>
       </c>
@@ -20471,7 +20465,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
         <v>13</v>
       </c>
@@ -20497,7 +20491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
         <v>13</v>
       </c>
@@ -20523,7 +20517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
         <v>24</v>
       </c>
@@ -20575,7 +20569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
         <v>24</v>
       </c>
@@ -20601,7 +20595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="6" t="s">
         <v>8</v>
       </c>
@@ -20627,7 +20621,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
         <v>24</v>
       </c>
@@ -20679,7 +20673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="6" t="s">
         <v>13</v>
       </c>
@@ -20705,7 +20699,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
         <v>24</v>
       </c>
@@ -20757,7 +20751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="6" t="s">
         <v>24</v>
       </c>
@@ -20783,7 +20777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="6" t="s">
         <v>8</v>
       </c>
@@ -20809,7 +20803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
         <v>24</v>
       </c>
@@ -20835,7 +20829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
         <v>8</v>
       </c>
@@ -20887,7 +20881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="6" t="s">
         <v>13</v>
       </c>
@@ -20913,7 +20907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
         <v>24</v>
       </c>
@@ -20939,7 +20933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
         <v>24</v>
       </c>
@@ -20965,7 +20959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
         <v>13</v>
       </c>
@@ -20991,7 +20985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="6" t="s">
         <v>24</v>
       </c>
@@ -21069,7 +21063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
         <v>8</v>
       </c>
@@ -21147,7 +21141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
         <v>24</v>
       </c>
@@ -21173,7 +21167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="6" t="s">
         <v>13</v>
       </c>
@@ -21199,7 +21193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
         <v>13</v>
       </c>
@@ -21225,7 +21219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
         <v>8</v>
       </c>
@@ -21251,7 +21245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
         <v>13</v>
       </c>
@@ -21303,7 +21297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
         <v>8</v>
       </c>
@@ -21329,7 +21323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
         <v>24</v>
       </c>
@@ -21355,7 +21349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
         <v>24</v>
       </c>
@@ -21381,7 +21375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
         <v>8</v>
       </c>
@@ -21407,7 +21401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
         <v>24</v>
       </c>
@@ -21433,7 +21427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
         <v>8</v>
       </c>
@@ -21459,7 +21453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
         <v>24</v>
       </c>
@@ -21485,7 +21479,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
         <v>24</v>
       </c>
@@ -21511,7 +21505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
         <v>13</v>
       </c>
@@ -21589,7 +21583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
         <v>13</v>
       </c>
@@ -21615,7 +21609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
         <v>13</v>
       </c>
@@ -21641,7 +21635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
         <v>24</v>
       </c>
@@ -21667,7 +21661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
         <v>13</v>
       </c>
@@ -21693,7 +21687,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
         <v>24</v>
       </c>
@@ -21719,7 +21713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="6" t="s">
         <v>8</v>
       </c>
@@ -21745,7 +21739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
         <v>13</v>
       </c>
@@ -21771,7 +21765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="s">
         <v>8</v>
       </c>
@@ -21797,7 +21791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="s">
         <v>24</v>
       </c>
@@ -21823,7 +21817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
         <v>13</v>
       </c>
@@ -21849,7 +21843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
         <v>8</v>
       </c>
@@ -21875,7 +21869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="6" t="s">
         <v>13</v>
       </c>
@@ -21927,7 +21921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
         <v>8</v>
       </c>
@@ -21979,7 +21973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
         <v>13</v>
       </c>
@@ -22005,7 +21999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="s">
         <v>24</v>
       </c>
@@ -22031,7 +22025,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="s">
         <v>8</v>
       </c>
@@ -22057,7 +22051,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
         <v>13</v>
       </c>
@@ -22083,7 +22077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4" t="s">
         <v>8</v>
       </c>
@@ -22109,7 +22103,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="s">
         <v>8</v>
       </c>
@@ -22135,7 +22129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="s">
         <v>24</v>
       </c>
@@ -22161,7 +22155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
         <v>24</v>
       </c>
@@ -22213,7 +22207,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
         <v>24</v>
       </c>
@@ -22239,7 +22233,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="6" t="s">
         <v>13</v>
       </c>
@@ -22265,7 +22259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
         <v>13</v>
       </c>
@@ -22291,7 +22285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="6" t="s">
         <v>13</v>
       </c>
@@ -22343,7 +22337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="s">
         <v>8</v>
       </c>
@@ -22369,7 +22363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="s">
         <v>8</v>
       </c>
@@ -22421,7 +22415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="6" t="s">
         <v>24</v>
       </c>
@@ -22473,7 +22467,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="s">
         <v>24</v>
       </c>
@@ -22499,7 +22493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="6" t="s">
         <v>8</v>
       </c>
@@ -22525,7 +22519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="6" t="s">
         <v>13</v>
       </c>
@@ -22551,7 +22545,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="6" t="s">
         <v>24</v>
       </c>
@@ -22577,7 +22571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="s">
         <v>24</v>
       </c>
@@ -22629,7 +22623,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="s">
         <v>8</v>
       </c>
@@ -22655,7 +22649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2" t="s">
         <v>13</v>
       </c>
@@ -22681,7 +22675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2" t="s">
         <v>8</v>
       </c>
@@ -22707,7 +22701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
         <v>13</v>
       </c>
@@ -22759,7 +22753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2" t="s">
         <v>13</v>
       </c>
@@ -22785,7 +22779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="s">
         <v>8</v>
       </c>
@@ -22811,7 +22805,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="s">
         <v>24</v>
       </c>
@@ -22837,7 +22831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="s">
         <v>24</v>
       </c>
@@ -22889,7 +22883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="s">
         <v>24</v>
       </c>
@@ -22915,7 +22909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
         <v>8</v>
       </c>
@@ -22941,7 +22935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
         <v>13</v>
       </c>
@@ -22993,7 +22987,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="s">
         <v>13</v>
       </c>
@@ -23019,7 +23013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="s">
         <v>13</v>
       </c>
@@ -23097,7 +23091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="s">
         <v>8</v>
       </c>
@@ -23123,7 +23117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="s">
         <v>24</v>
       </c>
@@ -23149,7 +23143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
         <v>8</v>
       </c>
@@ -23227,7 +23221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="4" t="s">
         <v>8</v>
       </c>
@@ -23253,7 +23247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="s">
         <v>13</v>
       </c>
@@ -23279,7 +23273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
         <v>13</v>
       </c>
@@ -23331,7 +23325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="4" t="s">
         <v>24</v>
       </c>
@@ -23357,7 +23351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="s">
         <v>13</v>
       </c>
@@ -23383,7 +23377,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
         <v>8</v>
       </c>
@@ -23409,7 +23403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="s">
         <v>24</v>
       </c>
@@ -23435,7 +23429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="s">
         <v>13</v>
       </c>
@@ -23461,7 +23455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="s">
         <v>13</v>
       </c>
@@ -23487,7 +23481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="s">
         <v>24</v>
       </c>
@@ -23539,7 +23533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
         <v>8</v>
       </c>
@@ -23565,7 +23559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="4" t="s">
         <v>24</v>
       </c>
@@ -23591,7 +23585,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="6" t="s">
         <v>24</v>
       </c>
@@ -23617,7 +23611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
         <v>24</v>
       </c>
@@ -23643,7 +23637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="s">
         <v>24</v>
       </c>
@@ -23669,7 +23663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="s">
         <v>24</v>
       </c>
@@ -23695,7 +23689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="s">
         <v>24</v>
       </c>
@@ -23721,7 +23715,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="6" t="s">
         <v>13</v>
       </c>
@@ -23747,7 +23741,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="s">
         <v>24</v>
       </c>
@@ -23773,7 +23767,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="4" t="s">
         <v>8</v>
       </c>
@@ -23799,7 +23793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="s">
         <v>8</v>
       </c>
@@ -23825,7 +23819,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
         <v>13</v>
       </c>
@@ -23851,7 +23845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
         <v>24</v>
       </c>
@@ -23877,7 +23871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
         <v>8</v>
       </c>
@@ -23903,7 +23897,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
         <v>24</v>
       </c>
@@ -23929,7 +23923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="4" t="s">
         <v>8</v>
       </c>
@@ -24007,7 +24001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="4" t="s">
         <v>24</v>
       </c>
@@ -24059,7 +24053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="s">
         <v>13</v>
       </c>
@@ -24085,7 +24079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="s">
         <v>13</v>
       </c>
@@ -24189,7 +24183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="s">
         <v>8</v>
       </c>
@@ -24241,7 +24235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="4" t="s">
         <v>8</v>
       </c>
@@ -24267,7 +24261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="s">
         <v>13</v>
       </c>
@@ -24293,7 +24287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="s">
         <v>8</v>
       </c>
@@ -24319,7 +24313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="s">
         <v>24</v>
       </c>
@@ -24345,7 +24339,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="s">
         <v>8</v>
       </c>
@@ -24371,7 +24365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4" t="s">
         <v>24</v>
       </c>
@@ -24397,7 +24391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="s">
         <v>8</v>
       </c>
@@ -24423,7 +24417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="s">
         <v>24</v>
       </c>
@@ -24449,7 +24443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="s">
         <v>8</v>
       </c>
@@ -24501,7 +24495,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="s">
         <v>24</v>
       </c>
@@ -24527,7 +24521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="s">
         <v>13</v>
       </c>
@@ -24553,7 +24547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="779" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="2" t="s">
         <v>13</v>
       </c>
@@ -24579,7 +24573,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="780" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="s">
         <v>24</v>
       </c>
@@ -24605,7 +24599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="781" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="s">
         <v>8</v>
       </c>
@@ -24657,7 +24651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="s">
         <v>24</v>
       </c>
@@ -24683,7 +24677,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="784" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="s">
         <v>8</v>
       </c>
@@ -24709,7 +24703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="2" t="s">
         <v>24</v>
       </c>
@@ -24735,7 +24729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="4" t="s">
         <v>8</v>
       </c>
@@ -24761,7 +24755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="s">
         <v>8</v>
       </c>
@@ -24787,7 +24781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="s">
         <v>13</v>
       </c>
@@ -24813,7 +24807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="s">
         <v>8</v>
       </c>
@@ -24865,7 +24859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="6" t="s">
         <v>24</v>
       </c>
@@ -24891,7 +24885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="s">
         <v>13</v>
       </c>
@@ -24917,7 +24911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="s">
         <v>13</v>
       </c>
@@ -24943,7 +24937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="4" t="s">
         <v>13</v>
       </c>
@@ -24995,7 +24989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="6" t="s">
         <v>13</v>
       </c>
@@ -25021,7 +25015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2" t="s">
         <v>8</v>
       </c>
@@ -25047,7 +25041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="2" t="s">
         <v>24</v>
       </c>
@@ -25073,7 +25067,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="6" t="s">
         <v>13</v>
       </c>
@@ -25099,7 +25093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="6" t="s">
         <v>8</v>
       </c>
@@ -25125,7 +25119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="4" t="s">
         <v>13</v>
       </c>
@@ -25151,7 +25145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="s">
         <v>13</v>
       </c>
@@ -25177,7 +25171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="s">
         <v>13</v>
       </c>
@@ -25281,7 +25275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="s">
         <v>8</v>
       </c>
@@ -25307,7 +25301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="s">
         <v>13</v>
       </c>
@@ -25359,7 +25353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2" t="s">
         <v>13</v>
       </c>
@@ -25385,7 +25379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2" t="s">
         <v>13</v>
       </c>
@@ -25411,7 +25405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="4" t="s">
         <v>13</v>
       </c>
@@ -25437,7 +25431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2" t="s">
         <v>24</v>
       </c>
@@ -25515,7 +25509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2" t="s">
         <v>13</v>
       </c>
@@ -25619,7 +25613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="820" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="2" t="s">
         <v>8</v>
       </c>
@@ -25645,7 +25639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2" t="s">
         <v>24</v>
       </c>
@@ -25671,7 +25665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="s">
         <v>13</v>
       </c>
@@ -25697,7 +25691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2" t="s">
         <v>13</v>
       </c>
@@ -25775,7 +25769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="826" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="2" t="s">
         <v>8</v>
       </c>
@@ -25801,7 +25795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="827" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2" t="s">
         <v>13</v>
       </c>
@@ -25827,7 +25821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2" t="s">
         <v>8</v>
       </c>
@@ -25853,7 +25847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="829" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2" t="s">
         <v>24</v>
       </c>
@@ -25879,7 +25873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2" t="s">
         <v>24</v>
       </c>
@@ -25905,7 +25899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="831" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="6" t="s">
         <v>8</v>
       </c>
@@ -25957,7 +25951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="833" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2" t="s">
         <v>24</v>
       </c>
@@ -25983,7 +25977,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="834" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2" t="s">
         <v>24</v>
       </c>
@@ -26009,7 +26003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="835" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="6" t="s">
         <v>8</v>
       </c>
@@ -26035,7 +26029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="836" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="s">
         <v>13</v>
       </c>
@@ -26061,7 +26055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="837" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2" t="s">
         <v>13</v>
       </c>
@@ -26139,7 +26133,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="6" t="s">
         <v>24</v>
       </c>
@@ -26165,7 +26159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="841" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2" t="s">
         <v>24</v>
       </c>
@@ -26191,7 +26185,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="842" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2" t="s">
         <v>13</v>
       </c>
@@ -26243,7 +26237,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="844" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="2" t="s">
         <v>13</v>
       </c>
@@ -26295,7 +26289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="6" t="s">
         <v>13</v>
       </c>
@@ -26373,7 +26367,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="849" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2" t="s">
         <v>8</v>
       </c>
@@ -26425,7 +26419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="851" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2" t="s">
         <v>13</v>
       </c>
@@ -26451,7 +26445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="852" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2" t="s">
         <v>8</v>
       </c>
@@ -26529,7 +26523,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="855" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2" t="s">
         <v>13</v>
       </c>
@@ -26555,7 +26549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="856" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2" t="s">
         <v>24</v>
       </c>
@@ -26581,7 +26575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2" t="s">
         <v>8</v>
       </c>
@@ -26633,7 +26627,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="859" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="4" t="s">
         <v>24</v>
       </c>
@@ -26685,7 +26679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="861" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2" t="s">
         <v>24</v>
       </c>
@@ -26711,7 +26705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="862" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="4" t="s">
         <v>24</v>
       </c>
@@ -26737,7 +26731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="863" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="s">
         <v>8</v>
       </c>
@@ -26763,7 +26757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2" t="s">
         <v>13</v>
       </c>
@@ -26789,7 +26783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2" t="s">
         <v>13</v>
       </c>
@@ -26815,7 +26809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="866" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2" t="s">
         <v>13</v>
       </c>
@@ -26867,7 +26861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="s">
         <v>8</v>
       </c>
@@ -26893,7 +26887,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="869" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2" t="s">
         <v>13</v>
       </c>
@@ -26919,7 +26913,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="870" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2" t="s">
         <v>13</v>
       </c>
@@ -26945,7 +26939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="871" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="4" t="s">
         <v>13</v>
       </c>
@@ -26971,7 +26965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="872" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="s">
         <v>8</v>
       </c>
@@ -26997,7 +26991,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="s">
         <v>13</v>
       </c>
@@ -27023,7 +27017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="874" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2" t="s">
         <v>8</v>
       </c>
@@ -27049,7 +27043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="875" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2" t="s">
         <v>24</v>
       </c>
@@ -27075,7 +27069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="4" t="s">
         <v>8</v>
       </c>
@@ -27101,7 +27095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="877" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="s">
         <v>8</v>
       </c>
@@ -27179,7 +27173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="6" t="s">
         <v>24</v>
       </c>
@@ -27205,7 +27199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="881" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="s">
         <v>13</v>
       </c>
@@ -27257,7 +27251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2" t="s">
         <v>8</v>
       </c>
@@ -27283,7 +27277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="6" t="s">
         <v>24</v>
       </c>
@@ -27309,7 +27303,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="6" t="s">
         <v>8</v>
       </c>
@@ -27335,7 +27329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="886" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2" t="s">
         <v>8</v>
       </c>
@@ -27361,7 +27355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="887" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2" t="s">
         <v>24</v>
       </c>
@@ -27387,7 +27381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2" t="s">
         <v>13</v>
       </c>
@@ -27413,7 +27407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="889" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2" t="s">
         <v>8</v>
       </c>
@@ -27439,7 +27433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="890" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="4" t="s">
         <v>8</v>
       </c>
@@ -27491,7 +27485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="892" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="6" t="s">
         <v>8</v>
       </c>
@@ -27517,7 +27511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="893" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="4" t="s">
         <v>8</v>
       </c>
@@ -27543,7 +27537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="894" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2" t="s">
         <v>8</v>
       </c>
@@ -27569,7 +27563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="895" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="4" t="s">
         <v>13</v>
       </c>
@@ -27595,7 +27589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="896" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="s">
         <v>8</v>
       </c>
@@ -27621,7 +27615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="897" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2" t="s">
         <v>13</v>
       </c>
@@ -27673,7 +27667,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="899" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2" t="s">
         <v>8</v>
       </c>
@@ -27699,7 +27693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="900" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="6" t="s">
         <v>8</v>
       </c>
@@ -27725,7 +27719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="6" t="s">
         <v>13</v>
       </c>
@@ -27751,7 +27745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="4" t="s">
         <v>8</v>
       </c>
@@ -27777,7 +27771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2" t="s">
         <v>8</v>
       </c>
@@ -27803,7 +27797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="904" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2" t="s">
         <v>8</v>
       </c>
@@ -27829,7 +27823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="905" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2" t="s">
         <v>8</v>
       </c>
@@ -27855,7 +27849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="6" t="s">
         <v>24</v>
       </c>
@@ -27907,7 +27901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="908" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="s">
         <v>13</v>
       </c>
@@ -27933,7 +27927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2" t="s">
         <v>13</v>
       </c>
@@ -27985,7 +27979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="911" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="6" t="s">
         <v>8</v>
       </c>
@@ -28011,7 +28005,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="912" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2" t="s">
         <v>13</v>
       </c>
@@ -28037,7 +28031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="913" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2" t="s">
         <v>13</v>
       </c>
@@ -28063,7 +28057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="914" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="2" t="s">
         <v>24</v>
       </c>
@@ -28089,7 +28083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="915" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="4" t="s">
         <v>8</v>
       </c>
@@ -28115,7 +28109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="916" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="2" t="s">
         <v>24</v>
       </c>
@@ -28141,7 +28135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="917" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="4" t="s">
         <v>24</v>
       </c>
@@ -28167,7 +28161,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="918" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="2" t="s">
         <v>13</v>
       </c>
@@ -28193,7 +28187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4" t="s">
         <v>24</v>
       </c>
@@ -28219,7 +28213,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="920" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="2" t="s">
         <v>24</v>
       </c>
@@ -28271,7 +28265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="922" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="2" t="s">
         <v>8</v>
       </c>
@@ -28297,7 +28291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="2" t="s">
         <v>24</v>
       </c>
@@ -28323,7 +28317,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="924" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="2" t="s">
         <v>8</v>
       </c>
@@ -28349,7 +28343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="925" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="2" t="s">
         <v>8</v>
       </c>
@@ -28375,7 +28369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="926" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="2" t="s">
         <v>8</v>
       </c>
@@ -28401,7 +28395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="927" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="2" t="s">
         <v>8</v>
       </c>
@@ -28427,7 +28421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="928" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="2" t="s">
         <v>24</v>
       </c>
@@ -28453,7 +28447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="929" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="2" t="s">
         <v>24</v>
       </c>
@@ -28479,7 +28473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="930" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="2" t="s">
         <v>24</v>
       </c>
@@ -28505,7 +28499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="931" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="2" t="s">
         <v>8</v>
       </c>
@@ -28531,7 +28525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="932" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="2" t="s">
         <v>8</v>
       </c>
@@ -28557,7 +28551,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="933" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="2" t="s">
         <v>24</v>
       </c>
@@ -28583,7 +28577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="2" t="s">
         <v>13</v>
       </c>
@@ -28609,7 +28603,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4" t="s">
         <v>24</v>
       </c>
@@ -28635,7 +28629,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="2" t="s">
         <v>8</v>
       </c>
@@ -28687,7 +28681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="938" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="2" t="s">
         <v>13</v>
       </c>
@@ -28713,7 +28707,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="939" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="939" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="2" t="s">
         <v>8</v>
       </c>
@@ -28765,7 +28759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="2" t="s">
         <v>13</v>
       </c>
@@ -28817,7 +28811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="943" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="943" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="2" t="s">
         <v>24</v>
       </c>
@@ -28843,7 +28837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="944" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="944" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="2" t="s">
         <v>24</v>
       </c>
@@ -28921,7 +28915,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="947" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="947" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="2" t="s">
         <v>13</v>
       </c>
@@ -28947,7 +28941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="948" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="2" t="s">
         <v>8</v>
       </c>
@@ -28973,7 +28967,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="949" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="949" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="2" t="s">
         <v>8</v>
       </c>
@@ -28999,7 +28993,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="950" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="950" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="2" t="s">
         <v>13</v>
       </c>
@@ -29025,7 +29019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="951" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="951" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="2" t="s">
         <v>8</v>
       </c>
@@ -29077,7 +29071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="953" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="2" t="s">
         <v>8</v>
       </c>
@@ -29103,7 +29097,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="954" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="954" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="2" t="s">
         <v>13</v>
       </c>
@@ -29129,7 +29123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="955" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="955" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="2" t="s">
         <v>8</v>
       </c>
@@ -29181,7 +29175,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="957" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="957" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="4" t="s">
         <v>8</v>
       </c>
@@ -29207,7 +29201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="958" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="958" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="6" t="s">
         <v>13</v>
       </c>
@@ -29233,7 +29227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="959" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="959" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="6" t="s">
         <v>13</v>
       </c>
@@ -29259,7 +29253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="960" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="960" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="4" t="s">
         <v>8</v>
       </c>
@@ -29311,7 +29305,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="962" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="962" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="4" t="s">
         <v>8</v>
       </c>
@@ -29337,7 +29331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="963" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="963" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="4" t="s">
         <v>13</v>
       </c>
@@ -29363,7 +29357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="964" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="964" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="2" t="s">
         <v>8</v>
       </c>
@@ -29389,7 +29383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="965" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="965" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="2" t="s">
         <v>8</v>
       </c>
@@ -29415,7 +29409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="966" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="966" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="4" t="s">
         <v>8</v>
       </c>
@@ -29467,7 +29461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="968" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="968" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="4" t="s">
         <v>13</v>
       </c>
@@ -29493,7 +29487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="969" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="969" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="2" t="s">
         <v>24</v>
       </c>
@@ -29545,7 +29539,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="971" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="971" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="2" t="s">
         <v>8</v>
       </c>
@@ -29571,7 +29565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="972" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="972" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="2" t="s">
         <v>13</v>
       </c>
@@ -29597,7 +29591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="973" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="973" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="2" t="s">
         <v>24</v>
       </c>
@@ -29649,7 +29643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="975" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="975" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="2" t="s">
         <v>13</v>
       </c>
@@ -29675,7 +29669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="976" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="976" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="2" t="s">
         <v>8</v>
       </c>
@@ -29701,7 +29695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="977" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="977" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="2" t="s">
         <v>13</v>
       </c>
@@ -29727,7 +29721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="978" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="978" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="2" t="s">
         <v>8</v>
       </c>
@@ -29753,7 +29747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="979" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="979" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="2" t="s">
         <v>8</v>
       </c>
@@ -29779,7 +29773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="6" t="s">
         <v>8</v>
       </c>
@@ -29831,7 +29825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="982" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="982" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="2" t="s">
         <v>8</v>
       </c>
@@ -29857,7 +29851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="983" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="983" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="2" t="s">
         <v>13</v>
       </c>
@@ -29883,7 +29877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="984" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="2" t="s">
         <v>24</v>
       </c>
@@ -29909,7 +29903,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="985" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="985" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="2" t="s">
         <v>13</v>
       </c>
@@ -29961,7 +29955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="987" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="987" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="2" t="s">
         <v>24</v>
       </c>
@@ -29987,7 +29981,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="988" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="988" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="2" t="s">
         <v>24</v>
       </c>
@@ -30013,7 +30007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="989" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="989" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="2" t="s">
         <v>13</v>
       </c>
@@ -30039,7 +30033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="990" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="990" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="2" t="s">
         <v>24</v>
       </c>
@@ -30065,7 +30059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="991" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="991" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="2" t="s">
         <v>24</v>
       </c>
@@ -30091,7 +30085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="992" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="992" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="2" t="s">
         <v>8</v>
       </c>
@@ -30117,7 +30111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="993" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="993" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="2" t="s">
         <v>13</v>
       </c>
@@ -30143,7 +30137,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="994" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="994" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="2" t="s">
         <v>24</v>
       </c>
@@ -30169,7 +30163,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="995" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="995" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="6" t="s">
         <v>13</v>
       </c>
@@ -30195,7 +30189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="996" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="996" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="2" t="s">
         <v>13</v>
       </c>
@@ -30273,7 +30267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="999" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="999" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="6" t="s">
         <v>24</v>
       </c>
@@ -30325,7 +30319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1001" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1001" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="4" t="s">
         <v>24</v>
       </c>
@@ -30377,7 +30371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1003" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1003" s="9" t="s">
         <v>24</v>
       </c>
@@ -30403,7 +30397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1004" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1004" s="9" t="s">
         <v>8</v>
       </c>
@@ -30429,7 +30423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1005" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1005" s="13" t="s">
         <v>24</v>
       </c>
@@ -30455,7 +30449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1006" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1006" s="13" t="s">
         <v>8</v>
       </c>
@@ -30481,7 +30475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1007" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1007" s="9" t="s">
         <v>24</v>
       </c>
@@ -30507,7 +30501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1008" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1008" s="9" t="s">
         <v>24</v>
       </c>
@@ -30559,7 +30553,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1010" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1010" s="9" t="s">
         <v>24</v>
       </c>
@@ -30585,7 +30579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1011" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1011" s="9" t="s">
         <v>24</v>
       </c>
@@ -30611,7 +30605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1012" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1012" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1012" s="9" t="s">
         <v>8</v>
       </c>
@@ -30637,7 +30631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1013" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1013" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1013" s="9" t="s">
         <v>8</v>
       </c>
@@ -30689,7 +30683,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1015" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1015" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1015" s="9" t="s">
         <v>13</v>
       </c>
@@ -30715,7 +30709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1016" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1016" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1016" s="9" t="s">
         <v>13</v>
       </c>
@@ -30741,7 +30735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1017" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1017" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1017" s="9" t="s">
         <v>13</v>
       </c>
@@ -30767,7 +30761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1018" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1018" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1018" s="17" t="s">
         <v>24</v>
       </c>
@@ -30793,7 +30787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1019" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1019" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1019" s="17" t="s">
         <v>24</v>
       </c>
@@ -30819,7 +30813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1020" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1020" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1020" s="13" t="s">
         <v>8</v>
       </c>
@@ -30845,7 +30839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1021" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1021" s="9" t="s">
         <v>24</v>
       </c>
@@ -30871,7 +30865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1022" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1022" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1022" s="9" t="s">
         <v>8</v>
       </c>
@@ -30897,7 +30891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1023" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1023" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1023" s="9" t="s">
         <v>8</v>
       </c>
@@ -30923,7 +30917,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1024" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1024" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1024" s="13" t="s">
         <v>13</v>
       </c>
@@ -30975,7 +30969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1026" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1026" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1026" s="13" t="s">
         <v>8</v>
       </c>
@@ -31001,7 +30995,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1027" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1027" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1027" s="9" t="s">
         <v>24</v>
       </c>
@@ -31079,7 +31073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1030" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1030" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1030" s="9" t="s">
         <v>24</v>
       </c>
@@ -31105,7 +31099,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1031" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1031" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1031" s="9" t="s">
         <v>13</v>
       </c>
@@ -31131,7 +31125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1032" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1032" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1032" s="9" t="s">
         <v>13</v>
       </c>
@@ -31157,7 +31151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1033" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1033" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1033" s="17" t="s">
         <v>24</v>
       </c>
@@ -31183,7 +31177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1034" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1034" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1034" s="9" t="s">
         <v>8</v>
       </c>
@@ -31209,7 +31203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1035" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1035" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1035" s="9" t="s">
         <v>24</v>
       </c>
@@ -31235,7 +31229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1036" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1036" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1036" s="9" t="s">
         <v>24</v>
       </c>
@@ -31261,7 +31255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1037" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1037" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1037" s="13" t="s">
         <v>13</v>
       </c>
@@ -31287,7 +31281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1038" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1038" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1038" s="9" t="s">
         <v>8</v>
       </c>
@@ -31313,7 +31307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1039" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1039" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1039" s="9" t="s">
         <v>24</v>
       </c>
@@ -31339,7 +31333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1040" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1040" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1040" s="9" t="s">
         <v>8</v>
       </c>
@@ -31365,7 +31359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1041" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1041" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1041" s="13" t="s">
         <v>13</v>
       </c>
@@ -31417,7 +31411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1043" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1043" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1043" s="9" t="s">
         <v>24</v>
       </c>
@@ -31443,7 +31437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1044" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1044" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1044" s="9" t="s">
         <v>8</v>
       </c>
@@ -31521,7 +31515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1047" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1047" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1047" s="9" t="s">
         <v>8</v>
       </c>
@@ -31547,7 +31541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1048" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1048" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1048" s="9" t="s">
         <v>13</v>
       </c>
@@ -31573,7 +31567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1049" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1049" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1049" s="13" t="s">
         <v>13</v>
       </c>
@@ -31625,7 +31619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1051" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1051" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1051" s="9" t="s">
         <v>8</v>
       </c>
@@ -31651,7 +31645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1052" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1052" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1052" s="9" t="s">
         <v>8</v>
       </c>
@@ -31677,7 +31671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1053" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1053" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1053" s="9" t="s">
         <v>24</v>
       </c>
@@ -31729,7 +31723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1055" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1055" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1055" s="9" t="s">
         <v>13</v>
       </c>
@@ -31755,7 +31749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1056" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1056" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1056" s="17" t="s">
         <v>13</v>
       </c>
@@ -31781,7 +31775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1057" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1057" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1057" s="9" t="s">
         <v>8</v>
       </c>
@@ -31807,7 +31801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1058" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1058" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1058" s="9" t="s">
         <v>13</v>
       </c>
@@ -31833,7 +31827,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1059" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1059" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1059" s="9" t="s">
         <v>13</v>
       </c>
@@ -31911,7 +31905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1062" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1062" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1062" s="9" t="s">
         <v>24</v>
       </c>
@@ -31963,7 +31957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1064" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1064" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1064" s="9" t="s">
         <v>8</v>
       </c>
@@ -31989,7 +31983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1065" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1065" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1065" s="9" t="s">
         <v>24</v>
       </c>
@@ -32041,7 +32035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1067" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1067" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1067" s="9" t="s">
         <v>24</v>
       </c>
@@ -32145,7 +32139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1071" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1071" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1071" s="9" t="s">
         <v>13</v>
       </c>
@@ -32171,7 +32165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1072" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1072" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1072" s="9" t="s">
         <v>13</v>
       </c>
@@ -32197,7 +32191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1073" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1073" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1073" s="9" t="s">
         <v>8</v>
       </c>
@@ -32223,7 +32217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1074" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1074" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1074" s="13" t="s">
         <v>8</v>
       </c>
@@ -32249,7 +32243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1075" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1075" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1075" s="9" t="s">
         <v>8</v>
       </c>
@@ -32301,7 +32295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1077" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1077" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1077" s="17" t="s">
         <v>24</v>
       </c>
@@ -32327,7 +32321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1078" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1078" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1078" s="9" t="s">
         <v>24</v>
       </c>
@@ -32353,7 +32347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1079" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1079" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1079" s="9" t="s">
         <v>24</v>
       </c>
@@ -32379,7 +32373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1080" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1080" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1080" s="9" t="s">
         <v>13</v>
       </c>
@@ -32405,7 +32399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1081" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1081" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1081" s="9" t="s">
         <v>8</v>
       </c>
@@ -32457,7 +32451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1083" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1083" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1083" s="9" t="s">
         <v>24</v>
       </c>
@@ -32483,7 +32477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1084" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1084" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1084" s="9" t="s">
         <v>8</v>
       </c>
@@ -32535,7 +32529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1086" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1086" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1086" s="13" t="s">
         <v>8</v>
       </c>
@@ -32561,7 +32555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1087" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1087" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1087" s="9" t="s">
         <v>13</v>
       </c>
@@ -32613,7 +32607,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1089" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1089" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1089" s="9" t="s">
         <v>13</v>
       </c>
@@ -32639,7 +32633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1090" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1090" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1090" s="9" t="s">
         <v>13</v>
       </c>
@@ -32691,7 +32685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1092" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1092" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1092" s="9" t="s">
         <v>8</v>
       </c>
@@ -32717,7 +32711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1093" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1093" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1093" s="9" t="s">
         <v>8</v>
       </c>
@@ -32743,7 +32737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1094" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1094" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1094" s="9" t="s">
         <v>13</v>
       </c>
@@ -32769,7 +32763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1095" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1095" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1095" s="9" t="s">
         <v>24</v>
       </c>
@@ -32795,7 +32789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1096" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1096" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1096" s="9" t="s">
         <v>24</v>
       </c>
@@ -32847,7 +32841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1098" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1098" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1098" s="9" t="s">
         <v>8</v>
       </c>
@@ -32873,7 +32867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1099" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1099" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1099" s="13" t="s">
         <v>8</v>
       </c>
@@ -32899,7 +32893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1100" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1100" s="9" t="s">
         <v>8</v>
       </c>
@@ -32977,7 +32971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1103" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1103" s="17" t="s">
         <v>8</v>
       </c>
@@ -33003,7 +32997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1104" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1104" s="9" t="s">
         <v>8</v>
       </c>
@@ -33029,7 +33023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1105" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1105" s="9" t="s">
         <v>24</v>
       </c>
@@ -33055,7 +33049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1106" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1106" s="9" t="s">
         <v>13</v>
       </c>
@@ -33081,7 +33075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1107" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1107" s="17" t="s">
         <v>8</v>
       </c>
@@ -33107,7 +33101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1108" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1108" s="17" t="s">
         <v>8</v>
       </c>
@@ -33133,7 +33127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1109" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1109" s="9" t="s">
         <v>24</v>
       </c>
@@ -33159,7 +33153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1110" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1110" s="17" t="s">
         <v>13</v>
       </c>
@@ -33185,7 +33179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1111" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1111" s="9" t="s">
         <v>8</v>
       </c>
@@ -33211,7 +33205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1112" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1112" s="9" t="s">
         <v>8</v>
       </c>
@@ -33263,7 +33257,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1114" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1114" s="9" t="s">
         <v>24</v>
       </c>
@@ -33289,7 +33283,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1115" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1115" s="9" t="s">
         <v>8</v>
       </c>
@@ -33367,7 +33361,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1118" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1118" s="17" t="s">
         <v>13</v>
       </c>
@@ -33393,7 +33387,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1119" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1119" s="13" t="s">
         <v>13</v>
       </c>
@@ -33419,7 +33413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1120" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1120" s="9" t="s">
         <v>13</v>
       </c>
@@ -33445,7 +33439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1121" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1121" s="13" t="s">
         <v>13</v>
       </c>
@@ -33471,7 +33465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1122" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1122" s="9" t="s">
         <v>13</v>
       </c>
@@ -33497,7 +33491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1123" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1123" s="9" t="s">
         <v>24</v>
       </c>
@@ -33523,7 +33517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1124" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1124" s="17" t="s">
         <v>8</v>
       </c>
@@ -33549,7 +33543,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1125" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1125" s="9" t="s">
         <v>24</v>
       </c>
@@ -33601,7 +33595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1127" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1127" s="9" t="s">
         <v>13</v>
       </c>
@@ -33653,7 +33647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1129" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1129" s="9" t="s">
         <v>24</v>
       </c>
@@ -33679,7 +33673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1130" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1130" s="9" t="s">
         <v>13</v>
       </c>
@@ -33705,7 +33699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1131" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1131" s="17" t="s">
         <v>24</v>
       </c>
@@ -33731,7 +33725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1132" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1132" s="9" t="s">
         <v>8</v>
       </c>
@@ -33757,7 +33751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1133" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1133" s="9" t="s">
         <v>13</v>
       </c>
@@ -33783,7 +33777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1134" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1134" s="9" t="s">
         <v>13</v>
       </c>
@@ -33809,7 +33803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1135" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1135" s="13" t="s">
         <v>8</v>
       </c>
@@ -33835,7 +33829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1136" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1136" s="9" t="s">
         <v>13</v>
       </c>
@@ -33861,7 +33855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1137" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1137" s="9" t="s">
         <v>24</v>
       </c>
@@ -33939,7 +33933,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1140" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1140" s="9" t="s">
         <v>13</v>
       </c>
@@ -33965,7 +33959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1141" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1141" s="9" t="s">
         <v>13</v>
       </c>
@@ -34043,7 +34037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1144" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1144" s="9" t="s">
         <v>24</v>
       </c>
@@ -34069,7 +34063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1145" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1145" s="9" t="s">
         <v>24</v>
       </c>
@@ -34095,7 +34089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1146" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1146" s="9" t="s">
         <v>24</v>
       </c>
@@ -34121,7 +34115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1147" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1147" s="9" t="s">
         <v>24</v>
       </c>
@@ -34147,7 +34141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1148" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1148" s="9" t="s">
         <v>8</v>
       </c>
@@ -34173,7 +34167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1149" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1149" s="9" t="s">
         <v>13</v>
       </c>
@@ -34225,7 +34219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1151" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1151" s="17" t="s">
         <v>8</v>
       </c>
@@ -34251,7 +34245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1152" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1152" s="9" t="s">
         <v>13</v>
       </c>
@@ -34303,7 +34297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1154" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1154" s="9" t="s">
         <v>24</v>
       </c>
@@ -34329,7 +34323,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1155" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1155" s="13" t="s">
         <v>13</v>
       </c>
@@ -34381,7 +34375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1157" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1157" s="17" t="s">
         <v>8</v>
       </c>
@@ -34407,7 +34401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1158" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1158" s="13" t="s">
         <v>8</v>
       </c>
@@ -34433,7 +34427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1159" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1159" s="9" t="s">
         <v>24</v>
       </c>
@@ -34511,7 +34505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1162" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1162" s="9" t="s">
         <v>24</v>
       </c>
@@ -34537,7 +34531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1163" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1163" s="9" t="s">
         <v>24</v>
       </c>
@@ -34563,7 +34557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1164" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1164" s="9" t="s">
         <v>13</v>
       </c>
@@ -34589,7 +34583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1165" s="13" t="s">
         <v>13</v>
       </c>
@@ -34615,7 +34609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1166" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1166" s="9" t="s">
         <v>13</v>
       </c>
@@ -34641,7 +34635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1167" s="13" t="s">
         <v>24</v>
       </c>
@@ -34667,7 +34661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1168" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1168" s="13" t="s">
         <v>13</v>
       </c>
@@ -34719,7 +34713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1170" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1170" s="9" t="s">
         <v>13</v>
       </c>
@@ -34745,7 +34739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1171" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1171" s="13" t="s">
         <v>24</v>
       </c>
@@ -34771,7 +34765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1172" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1172" s="9" t="s">
         <v>8</v>
       </c>
@@ -34797,7 +34791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1173" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1173" s="9" t="s">
         <v>8</v>
       </c>
@@ -34823,7 +34817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1174" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1174" s="17" t="s">
         <v>8</v>
       </c>
@@ -34849,7 +34843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1175" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1175" s="9" t="s">
         <v>8</v>
       </c>
@@ -34875,7 +34869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1176" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1176" s="9" t="s">
         <v>13</v>
       </c>
@@ -34901,7 +34895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1177" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1177" s="9" t="s">
         <v>13</v>
       </c>
@@ -34927,7 +34921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1178" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1178" s="9" t="s">
         <v>13</v>
       </c>
@@ -34953,7 +34947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1179" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1179" s="9" t="s">
         <v>24</v>
       </c>
@@ -34979,7 +34973,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1180" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1180" s="9" t="s">
         <v>8</v>
       </c>
@@ -35057,7 +35051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1183" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1183" s="17" t="s">
         <v>8</v>
       </c>
@@ -35083,7 +35077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1184" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1184" s="9" t="s">
         <v>13</v>
       </c>
@@ -35109,7 +35103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1185" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1185" s="9" t="s">
         <v>24</v>
       </c>
@@ -35135,7 +35129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1186" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1186" s="9" t="s">
         <v>8</v>
       </c>
@@ -35187,7 +35181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1188" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1188" s="9" t="s">
         <v>8</v>
       </c>
@@ -35213,7 +35207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1189" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1189" s="9" t="s">
         <v>24</v>
       </c>
@@ -35239,7 +35233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1190" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1190" s="9" t="s">
         <v>13</v>
       </c>
@@ -35265,7 +35259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1191" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1191" s="9" t="s">
         <v>24</v>
       </c>
@@ -35343,7 +35337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1194" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1194" s="9" t="s">
         <v>13</v>
       </c>
@@ -35369,7 +35363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1195" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1195" s="9" t="s">
         <v>8</v>
       </c>
@@ -35421,7 +35415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1197" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1197" s="9" t="s">
         <v>8</v>
       </c>
@@ -35447,7 +35441,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1198" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1198" s="9" t="s">
         <v>24</v>
       </c>
@@ -35473,7 +35467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1199" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1199" s="9" t="s">
         <v>13</v>
       </c>
@@ -35499,7 +35493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1200" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1200" s="9" t="s">
         <v>8</v>
       </c>
@@ -35551,7 +35545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1202" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1202" s="9" t="s">
         <v>8</v>
       </c>
@@ -35655,7 +35649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1206" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1206" s="9" t="s">
         <v>24</v>
       </c>
@@ -35707,7 +35701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1208" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1208" s="17" t="s">
         <v>13</v>
       </c>
@@ -35733,7 +35727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1209" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1209" s="17" t="s">
         <v>24</v>
       </c>
@@ -35759,7 +35753,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1210" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1210" s="9" t="s">
         <v>13</v>
       </c>
@@ -35811,7 +35805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1212" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1212" s="9" t="s">
         <v>13</v>
       </c>
@@ -35837,7 +35831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1213" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1213" s="9" t="s">
         <v>13</v>
       </c>
@@ -35863,7 +35857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1214" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1214" s="17" t="s">
         <v>13</v>
       </c>
@@ -35889,7 +35883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1215" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1215" s="9" t="s">
         <v>24</v>
       </c>
@@ -35993,7 +35987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1219" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1219" s="9" t="s">
         <v>24</v>
       </c>
@@ -36045,7 +36039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1221" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1221" s="17" t="s">
         <v>8</v>
       </c>
@@ -36097,7 +36091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1223" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1223" s="9" t="s">
         <v>8</v>
       </c>
@@ -36123,7 +36117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1224" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1224" s="13" t="s">
         <v>13</v>
       </c>
@@ -36149,7 +36143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1225" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1225" s="9" t="s">
         <v>24</v>
       </c>
@@ -36175,7 +36169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1226" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1226" s="9" t="s">
         <v>24</v>
       </c>
@@ -36201,7 +36195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1227" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1227" s="9" t="s">
         <v>24</v>
       </c>
@@ -36227,7 +36221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1228" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1228" s="9" t="s">
         <v>24</v>
       </c>
@@ -36253,7 +36247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1229" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1229" s="9" t="s">
         <v>8</v>
       </c>
@@ -36305,7 +36299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1231" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1231" s="17" t="s">
         <v>13</v>
       </c>
@@ -36331,7 +36325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1232" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1232" s="9" t="s">
         <v>24</v>
       </c>
@@ -36357,7 +36351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1233" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1233" s="13" t="s">
         <v>13</v>
       </c>
@@ -36409,7 +36403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1235" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1235" s="13" t="s">
         <v>24</v>
       </c>
@@ -36435,7 +36429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1236" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1236" s="9" t="s">
         <v>8</v>
       </c>
@@ -36461,7 +36455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1237" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1237" s="13" t="s">
         <v>8</v>
       </c>
@@ -36487,7 +36481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1238" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1238" s="17" t="s">
         <v>8</v>
       </c>
@@ -36513,7 +36507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1239" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1239" s="9" t="s">
         <v>13</v>
       </c>
@@ -36539,7 +36533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1240" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1240" s="9" t="s">
         <v>13</v>
       </c>
@@ -36565,7 +36559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1241" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1241" s="9" t="s">
         <v>8</v>
       </c>
@@ -36591,7 +36585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1242" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1242" s="9" t="s">
         <v>24</v>
       </c>
@@ -36617,7 +36611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1243" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1243" s="9" t="s">
         <v>24</v>
       </c>
@@ -36643,7 +36637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1244" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1244" s="17" t="s">
         <v>13</v>
       </c>
@@ -36669,7 +36663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1245" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1245" s="9" t="s">
         <v>24</v>
       </c>
@@ -36695,7 +36689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1246" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1246" s="9" t="s">
         <v>8</v>
       </c>
@@ -36721,7 +36715,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1247" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1247" s="9" t="s">
         <v>8</v>
       </c>
@@ -36773,7 +36767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1249" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1249" s="13" t="s">
         <v>13</v>
       </c>
@@ -36799,7 +36793,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1250" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1250" s="9" t="s">
         <v>8</v>
       </c>
@@ -36851,7 +36845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1252" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1252" s="9" t="s">
         <v>8</v>
       </c>
@@ -36955,7 +36949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1256" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1256" s="9" t="s">
         <v>8</v>
       </c>
@@ -36981,7 +36975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1257" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1257" s="13" t="s">
         <v>13</v>
       </c>
@@ -37033,7 +37027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1259" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1259" s="9" t="s">
         <v>24</v>
       </c>
@@ -37059,7 +37053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1260" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1260" s="9" t="s">
         <v>24</v>
       </c>
@@ -37111,7 +37105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1262" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1262" s="9" t="s">
         <v>8</v>
       </c>
@@ -37137,7 +37131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1263" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1263" s="9" t="s">
         <v>8</v>
       </c>
@@ -37189,7 +37183,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1265" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1265" s="9" t="s">
         <v>24</v>
       </c>
@@ -37215,7 +37209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1266" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1266" s="9" t="s">
         <v>24</v>
       </c>
@@ -37241,7 +37235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1267" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1267" s="13" t="s">
         <v>24</v>
       </c>
@@ -37267,7 +37261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1268" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1268" s="13" t="s">
         <v>24</v>
       </c>
@@ -37293,7 +37287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1269" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1269" s="13" t="s">
         <v>13</v>
       </c>
@@ -37319,7 +37313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1270" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1270" s="9" t="s">
         <v>13</v>
       </c>
@@ -37345,7 +37339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1271" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1271" s="17" t="s">
         <v>13</v>
       </c>
@@ -37371,7 +37365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1272" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1272" s="9" t="s">
         <v>24</v>
       </c>
@@ -37397,7 +37391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1273" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1273" s="13" t="s">
         <v>24</v>
       </c>
@@ -37423,7 +37417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1274" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1274" s="9" t="s">
         <v>13</v>
       </c>
@@ -37475,7 +37469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1276" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1276" s="9" t="s">
         <v>13</v>
       </c>
@@ -37527,7 +37521,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="1278" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1278" s="9" t="s">
         <v>13</v>
       </c>
@@ -37553,7 +37547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1279" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1279" s="9" t="s">
         <v>24</v>
       </c>
@@ -37579,7 +37573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1280" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1280" s="9" t="s">
         <v>13</v>
       </c>
@@ -37631,7 +37625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1282" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1282" s="9" t="s">
         <v>24</v>
       </c>
@@ -37657,7 +37651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1283" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1283" s="9" t="s">
         <v>13</v>
       </c>
@@ -37683,7 +37677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1284" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1284" s="13" t="s">
         <v>24</v>
       </c>
@@ -37709,7 +37703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1285" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1285" s="9" t="s">
         <v>13</v>
       </c>
@@ -37735,7 +37729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1286" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1286" s="9" t="s">
         <v>13</v>
       </c>
@@ -37761,7 +37755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1287" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1287" s="9" t="s">
         <v>13</v>
       </c>
@@ -37787,7 +37781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1288" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1288" s="17" t="s">
         <v>8</v>
       </c>
@@ -37839,7 +37833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1290" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1290" s="9" t="s">
         <v>13</v>
       </c>
@@ -37865,7 +37859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1291" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1291" s="9" t="s">
         <v>24</v>
       </c>
@@ -37943,7 +37937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1294" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1294" s="9" t="s">
         <v>8</v>
       </c>
@@ -37995,7 +37989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1296" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1296" s="9" t="s">
         <v>13</v>
       </c>
@@ -38021,7 +38015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1297" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1297" s="9" t="s">
         <v>13</v>
       </c>
@@ -38073,7 +38067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1299" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1299" s="9" t="s">
         <v>13</v>
       </c>
@@ -38099,7 +38093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1300" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1300" s="9" t="s">
         <v>24</v>
       </c>
@@ -38125,7 +38119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1301" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1301" s="9" t="s">
         <v>8</v>
       </c>
@@ -38151,7 +38145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1302" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1302" s="9" t="s">
         <v>8</v>
       </c>
@@ -38177,7 +38171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1303" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1303" s="21" t="s">
         <v>8</v>
       </c>
